--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -12,18 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
-    <t>livingcellcount</t>
+    <t>Operator</t>
   </si>
   <si>
-    <t>dilutionfactor</t>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>DilutionFactor</t>
+  </si>
+  <si>
+    <t>LivingCellCount</t>
+  </si>
+  <si>
+    <t>#string</t>
+  </si>
+  <si>
+    <t>#date</t>
   </si>
   <si>
     <t>#integer</t>
-  </si>
-  <si>
-    <t>#string</t>
   </si>
 </sst>
 </file>
@@ -68,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,13 +105,55 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Operator</t>
   </si>
@@ -48,6 +48,30 @@
   </si>
   <si>
     <t>#integer</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -92,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,6 +180,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -14,61 +14,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>DilutionFactor</t>
   </si>
   <si>
     <t>LivingCellCount</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t/>
@@ -156,25 +156,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>

--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -41,6 +44,9 @@
     <t>LivingCellCount</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -50,28 +56,34 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -116,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,63 +162,81 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,13 +41,46 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>DilutionFactor</t>
   </si>
   <si>
     <t>LivingCellCount</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -56,34 +92,61 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
   </si>
 </sst>
 </file>
@@ -128,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,75 +231,160 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/cellmicroscopy.xlsx
+++ b/template_pegase_v1/cellmicroscopy.xlsx
@@ -41,15 +41,15 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>DilutionFactor</t>
+  </si>
+  <si>
+    <t>LivingCellCount</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>DilutionFactor</t>
-  </si>
-  <si>
-    <t>LivingCellCount</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -77,10 +77,10 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -267,7 +267,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -305,10 +305,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -340,13 +340,13 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -378,13 +378,13 @@
         <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
